--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.7696748226313</v>
+        <v>15.466502</v>
       </c>
       <c r="H2">
-        <v>13.7696748226313</v>
+        <v>46.399506</v>
       </c>
       <c r="I2">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593624</v>
       </c>
       <c r="J2">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593625</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.9386676873139</v>
+        <v>12.42467</v>
       </c>
       <c r="N2">
-        <v>11.9386676873139</v>
+        <v>37.27401</v>
       </c>
       <c r="O2">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="P2">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="Q2">
-        <v>164.3915718697681</v>
+        <v>192.16618340434</v>
       </c>
       <c r="R2">
-        <v>164.3915718697681</v>
+        <v>1729.49565063906</v>
       </c>
       <c r="S2">
-        <v>0.06116962886807577</v>
+        <v>0.05957525750967544</v>
       </c>
       <c r="T2">
-        <v>0.06116962886807577</v>
+        <v>0.05957525750967545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.7696748226313</v>
+        <v>15.466502</v>
       </c>
       <c r="H3">
-        <v>13.7696748226313</v>
+        <v>46.399506</v>
       </c>
       <c r="I3">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593624</v>
       </c>
       <c r="J3">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593625</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.4309598417779</v>
+        <v>12.45773566666667</v>
       </c>
       <c r="N3">
-        <v>12.4309598417779</v>
+        <v>37.373207</v>
       </c>
       <c r="O3">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="P3">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="Q3">
-        <v>171.1702747544699</v>
+        <v>192.6775936039713</v>
       </c>
       <c r="R3">
-        <v>171.1702747544699</v>
+        <v>1734.098342435742</v>
       </c>
       <c r="S3">
-        <v>0.06369196462378385</v>
+        <v>0.05973380462653213</v>
       </c>
       <c r="T3">
-        <v>0.06369196462378385</v>
+        <v>0.05973380462653213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.7696748226313</v>
+        <v>15.466502</v>
       </c>
       <c r="H4">
-        <v>13.7696748226313</v>
+        <v>46.399506</v>
       </c>
       <c r="I4">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593624</v>
       </c>
       <c r="J4">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593625</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.53551767599529</v>
+        <v>3.546802333333333</v>
       </c>
       <c r="N4">
-        <v>3.53551767599529</v>
+        <v>10.640407</v>
       </c>
       <c r="O4">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730705</v>
       </c>
       <c r="P4">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730702</v>
       </c>
       <c r="Q4">
-        <v>48.68292872812027</v>
+        <v>54.85662538210467</v>
       </c>
       <c r="R4">
-        <v>48.68292872812027</v>
+        <v>493.709628438942</v>
       </c>
       <c r="S4">
-        <v>0.01811477710590433</v>
+        <v>0.01700662169250781</v>
       </c>
       <c r="T4">
-        <v>0.01811477710590433</v>
+        <v>0.01700662169250781</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.7696748226313</v>
+        <v>15.466502</v>
       </c>
       <c r="H5">
-        <v>13.7696748226313</v>
+        <v>46.399506</v>
       </c>
       <c r="I5">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593624</v>
       </c>
       <c r="J5">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593625</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.66235533921757</v>
+        <v>2.801381000000001</v>
       </c>
       <c r="N5">
-        <v>2.66235533921757</v>
+        <v>8.404143000000001</v>
       </c>
       <c r="O5">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166073</v>
       </c>
       <c r="P5">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166071</v>
       </c>
       <c r="Q5">
-        <v>36.65976728332219</v>
+        <v>43.32756483926201</v>
       </c>
       <c r="R5">
-        <v>36.65976728332219</v>
+        <v>389.9480835533581</v>
       </c>
       <c r="S5">
-        <v>0.01364099347433297</v>
+        <v>0.01343238850268958</v>
       </c>
       <c r="T5">
-        <v>0.01364099347433297</v>
+        <v>0.01343238850268958</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.7696748226313</v>
+        <v>15.466502</v>
       </c>
       <c r="H6">
-        <v>13.7696748226313</v>
+        <v>46.399506</v>
       </c>
       <c r="I6">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593624</v>
       </c>
       <c r="J6">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593625</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.6519131392724</v>
+        <v>6.114294</v>
       </c>
       <c r="N6">
-        <v>5.6519131392724</v>
+        <v>18.342882</v>
       </c>
       <c r="O6">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="P6">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="Q6">
-        <v>77.8250060535382</v>
+        <v>94.566740379588</v>
       </c>
       <c r="R6">
-        <v>77.8250060535382</v>
+        <v>851.100663416292</v>
       </c>
       <c r="S6">
-        <v>0.02895845986996219</v>
+        <v>0.02931753032795749</v>
       </c>
       <c r="T6">
-        <v>0.02895845986996219</v>
+        <v>0.02931753032795749</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.2873258228032</v>
+        <v>40.60794566666667</v>
       </c>
       <c r="H7">
-        <v>39.2873258228032</v>
+        <v>121.823837</v>
       </c>
       <c r="I7">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="J7">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.9386676873139</v>
+        <v>12.42467</v>
       </c>
       <c r="N7">
-        <v>11.9386676873139</v>
+        <v>37.27401</v>
       </c>
       <c r="O7">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="P7">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="Q7">
-        <v>469.0383273216735</v>
+        <v>504.5403242862633</v>
       </c>
       <c r="R7">
-        <v>469.0383273216735</v>
+        <v>4540.862918576369</v>
       </c>
       <c r="S7">
-        <v>0.1745278062667283</v>
+        <v>0.1564173217726009</v>
       </c>
       <c r="T7">
-        <v>0.1745278062667283</v>
+        <v>0.1564173217726009</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.2873258228032</v>
+        <v>40.60794566666667</v>
       </c>
       <c r="H8">
-        <v>39.2873258228032</v>
+        <v>121.823837</v>
       </c>
       <c r="I8">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="J8">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.4309598417779</v>
+        <v>12.45773566666667</v>
       </c>
       <c r="N8">
-        <v>12.4309598417779</v>
+        <v>37.373207</v>
       </c>
       <c r="O8">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="P8">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="Q8">
-        <v>488.3791695941105</v>
+        <v>505.8830530816954</v>
       </c>
       <c r="R8">
-        <v>488.3791695941105</v>
+        <v>4552.947477735259</v>
       </c>
       <c r="S8">
-        <v>0.1817244777891479</v>
+        <v>0.1568335938363761</v>
       </c>
       <c r="T8">
-        <v>0.1817244777891479</v>
+        <v>0.1568335938363761</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.2873258228032</v>
+        <v>40.60794566666667</v>
       </c>
       <c r="H9">
-        <v>39.2873258228032</v>
+        <v>121.823837</v>
       </c>
       <c r="I9">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="J9">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.53551767599529</v>
+        <v>3.546802333333333</v>
       </c>
       <c r="N9">
-        <v>3.53551767599529</v>
+        <v>10.640407</v>
       </c>
       <c r="O9">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730705</v>
       </c>
       <c r="P9">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730702</v>
       </c>
       <c r="Q9">
-        <v>138.9010348891069</v>
+        <v>144.0283564424066</v>
       </c>
       <c r="R9">
-        <v>138.9010348891069</v>
+        <v>1296.255207981659</v>
       </c>
       <c r="S9">
-        <v>0.05168467371483806</v>
+        <v>0.04465159411371182</v>
       </c>
       <c r="T9">
-        <v>0.05168467371483806</v>
+        <v>0.04465159411371181</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.2873258228032</v>
+        <v>40.60794566666667</v>
       </c>
       <c r="H10">
-        <v>39.2873258228032</v>
+        <v>121.823837</v>
       </c>
       <c r="I10">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="J10">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.66235533921757</v>
+        <v>2.801381000000001</v>
       </c>
       <c r="N10">
-        <v>2.66235533921757</v>
+        <v>8.404143000000001</v>
       </c>
       <c r="O10">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166073</v>
       </c>
       <c r="P10">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166071</v>
       </c>
       <c r="Q10">
-        <v>104.5968216679204</v>
+        <v>113.7583274396324</v>
       </c>
       <c r="R10">
-        <v>104.5968216679204</v>
+        <v>1023.824946956691</v>
       </c>
       <c r="S10">
-        <v>0.03892017510043427</v>
+        <v>0.03526729589475219</v>
       </c>
       <c r="T10">
-        <v>0.03892017510043427</v>
+        <v>0.03526729589475219</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.2873258228032</v>
+        <v>40.60794566666667</v>
       </c>
       <c r="H11">
-        <v>39.2873258228032</v>
+        <v>121.823837</v>
       </c>
       <c r="I11">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="J11">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.6519131392724</v>
+        <v>6.114294</v>
       </c>
       <c r="N11">
-        <v>5.6519131392724</v>
+        <v>18.342882</v>
       </c>
       <c r="O11">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="P11">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="Q11">
-        <v>222.0485530247772</v>
+        <v>248.288918542026</v>
       </c>
       <c r="R11">
-        <v>222.0485530247772</v>
+        <v>2234.600266878234</v>
       </c>
       <c r="S11">
-        <v>0.08262362495067024</v>
+        <v>0.07697439787215946</v>
       </c>
       <c r="T11">
-        <v>0.08262362495067024</v>
+        <v>0.07697439787215944</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>21.1427228429575</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H12">
-        <v>21.1427228429575</v>
+        <v>0.124606</v>
       </c>
       <c r="I12">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="J12">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.9386676873139</v>
+        <v>12.42467</v>
       </c>
       <c r="N12">
-        <v>11.9386676873139</v>
+        <v>37.27401</v>
       </c>
       <c r="O12">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="P12">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="Q12">
-        <v>252.4159420270502</v>
+        <v>0.5160628100066667</v>
       </c>
       <c r="R12">
-        <v>252.4159420270502</v>
+        <v>4.644565290059999</v>
       </c>
       <c r="S12">
-        <v>0.09392324264903432</v>
+        <v>0.0001599895166394793</v>
       </c>
       <c r="T12">
-        <v>0.09392324264903432</v>
+        <v>0.0001599895166394793</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>21.1427228429575</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H13">
-        <v>21.1427228429575</v>
+        <v>0.124606</v>
       </c>
       <c r="I13">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="J13">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.4309598417779</v>
+        <v>12.45773566666667</v>
       </c>
       <c r="N13">
-        <v>12.4309598417779</v>
+        <v>37.373207</v>
       </c>
       <c r="O13">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="P13">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="Q13">
-        <v>262.824338606645</v>
+        <v>0.5174362034935556</v>
       </c>
       <c r="R13">
-        <v>262.824338606645</v>
+        <v>4.656925831442</v>
       </c>
       <c r="S13">
-        <v>0.09779617694027611</v>
+        <v>0.0001604152953545166</v>
       </c>
       <c r="T13">
-        <v>0.09779617694027611</v>
+        <v>0.0001604152953545165</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>21.1427228429575</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H14">
-        <v>21.1427228429575</v>
+        <v>0.124606</v>
       </c>
       <c r="I14">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="J14">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.53551767599529</v>
+        <v>3.546802333333333</v>
       </c>
       <c r="N14">
-        <v>3.53551767599529</v>
+        <v>10.640407</v>
       </c>
       <c r="O14">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730705</v>
       </c>
       <c r="P14">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730702</v>
       </c>
       <c r="Q14">
-        <v>74.75047032994563</v>
+        <v>0.1473176171824445</v>
       </c>
       <c r="R14">
-        <v>74.75047032994563</v>
+        <v>1.325858554642</v>
       </c>
       <c r="S14">
-        <v>0.02781443401136897</v>
+        <v>4.567132897097286E-05</v>
       </c>
       <c r="T14">
-        <v>0.02781443401136897</v>
+        <v>4.567132897097285E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>21.1427228429575</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H15">
-        <v>21.1427228429575</v>
+        <v>0.124606</v>
       </c>
       <c r="I15">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="J15">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.66235533921757</v>
+        <v>2.801381000000001</v>
       </c>
       <c r="N15">
-        <v>2.66235533921757</v>
+        <v>8.404143000000001</v>
       </c>
       <c r="O15">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166073</v>
       </c>
       <c r="P15">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166071</v>
       </c>
       <c r="Q15">
-        <v>56.28944104654518</v>
+        <v>0.1163562936286667</v>
       </c>
       <c r="R15">
-        <v>56.28944104654518</v>
+        <v>1.047206642658</v>
       </c>
       <c r="S15">
-        <v>0.02094513835986875</v>
+        <v>3.60727159846516E-05</v>
       </c>
       <c r="T15">
-        <v>0.02094513835986875</v>
+        <v>3.60727159846516E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04153533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.124606</v>
+      </c>
+      <c r="I16">
+        <v>0.0004808811646609453</v>
+      </c>
+      <c r="J16">
+        <v>0.0004808811646609453</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.114294</v>
+      </c>
+      <c r="N16">
+        <v>18.342882</v>
+      </c>
+      <c r="O16">
+        <v>0.1637250811577051</v>
+      </c>
+      <c r="P16">
+        <v>0.1637250811577051</v>
+      </c>
+      <c r="Q16">
+        <v>0.253959239388</v>
+      </c>
+      <c r="R16">
+        <v>2.285633154492</v>
+      </c>
+      <c r="S16">
+        <v>7.873230771132501E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.8732307711325E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>30.25740066666667</v>
+      </c>
+      <c r="H17">
+        <v>90.77220199999999</v>
+      </c>
+      <c r="I17">
+        <v>0.3503093126863761</v>
+      </c>
+      <c r="J17">
+        <v>0.3503093126863762</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.42467</v>
+      </c>
+      <c r="N17">
+        <v>37.27401</v>
+      </c>
+      <c r="O17">
+        <v>0.3327007343951245</v>
+      </c>
+      <c r="P17">
+        <v>0.3327007343951245</v>
+      </c>
+      <c r="Q17">
+        <v>375.9382183411133</v>
+      </c>
+      <c r="R17">
+        <v>3383.44396507002</v>
+      </c>
+      <c r="S17">
+        <v>0.1165481655962086</v>
+      </c>
+      <c r="T17">
+        <v>0.1165481655962086</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>30.25740066666667</v>
+      </c>
+      <c r="H18">
+        <v>90.77220199999999</v>
+      </c>
+      <c r="I18">
+        <v>0.3503093126863761</v>
+      </c>
+      <c r="J18">
+        <v>0.3503093126863762</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>12.45773566666667</v>
+      </c>
+      <c r="N18">
+        <v>37.373207</v>
+      </c>
+      <c r="O18">
+        <v>0.3335861479782027</v>
+      </c>
+      <c r="P18">
+        <v>0.3335861479782027</v>
+      </c>
+      <c r="Q18">
+        <v>376.9386994657571</v>
+      </c>
+      <c r="R18">
+        <v>3392.448295191814</v>
+      </c>
+      <c r="S18">
+        <v>0.1168583342199399</v>
+      </c>
+      <c r="T18">
+        <v>0.1168583342199399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>30.25740066666667</v>
+      </c>
+      <c r="H19">
+        <v>90.77220199999999</v>
+      </c>
+      <c r="I19">
+        <v>0.3503093126863761</v>
+      </c>
+      <c r="J19">
+        <v>0.3503093126863762</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.546802333333333</v>
+      </c>
+      <c r="N19">
+        <v>10.640407</v>
+      </c>
+      <c r="O19">
+        <v>0.09497425211730705</v>
+      </c>
+      <c r="P19">
+        <v>0.09497425211730702</v>
+      </c>
+      <c r="Q19">
+        <v>107.3170192851349</v>
+      </c>
+      <c r="R19">
+        <v>965.8531735662139</v>
+      </c>
+      <c r="S19">
+        <v>0.03327036498211643</v>
+      </c>
+      <c r="T19">
+        <v>0.03327036498211643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>21.1427228429575</v>
-      </c>
-      <c r="H16">
-        <v>21.1427228429575</v>
-      </c>
-      <c r="I16">
-        <v>0.2849434182361222</v>
-      </c>
-      <c r="J16">
-        <v>0.2849434182361222</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>5.6519131392724</v>
-      </c>
-      <c r="N16">
-        <v>5.6519131392724</v>
-      </c>
-      <c r="O16">
-        <v>0.1560465110962065</v>
-      </c>
-      <c r="P16">
-        <v>0.1560465110962065</v>
-      </c>
-      <c r="Q16">
-        <v>119.4968330361062</v>
-      </c>
-      <c r="R16">
-        <v>119.4968330361062</v>
-      </c>
-      <c r="S16">
-        <v>0.04446442627557404</v>
-      </c>
-      <c r="T16">
-        <v>0.04446442627557404</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>30.25740066666667</v>
+      </c>
+      <c r="H20">
+        <v>90.77220199999999</v>
+      </c>
+      <c r="I20">
+        <v>0.3503093126863761</v>
+      </c>
+      <c r="J20">
+        <v>0.3503093126863762</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.801381000000001</v>
+      </c>
+      <c r="N20">
+        <v>8.404143000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.07501378435166073</v>
+      </c>
+      <c r="P20">
+        <v>0.07501378435166071</v>
+      </c>
+      <c r="Q20">
+        <v>84.76250733698734</v>
+      </c>
+      <c r="R20">
+        <v>762.8625660328861</v>
+      </c>
+      <c r="S20">
+        <v>0.02627802723823431</v>
+      </c>
+      <c r="T20">
+        <v>0.0262780272382343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>30.25740066666667</v>
+      </c>
+      <c r="H21">
+        <v>90.77220199999999</v>
+      </c>
+      <c r="I21">
+        <v>0.3503093126863761</v>
+      </c>
+      <c r="J21">
+        <v>0.3503093126863762</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.114294</v>
+      </c>
+      <c r="N21">
+        <v>18.342882</v>
+      </c>
+      <c r="O21">
+        <v>0.1637250811577051</v>
+      </c>
+      <c r="P21">
+        <v>0.1637250811577051</v>
+      </c>
+      <c r="Q21">
+        <v>185.002643351796</v>
+      </c>
+      <c r="R21">
+        <v>1665.023790166164</v>
+      </c>
+      <c r="S21">
+        <v>0.05735442064987682</v>
+      </c>
+      <c r="T21">
+        <v>0.05735442064987682</v>
       </c>
     </row>
   </sheetData>
